--- a/report/reports_230705/FFVN-GDKT-2023070009-ED530XT,1D102K254.xlsx
+++ b/report/reports_230705/FFVN-GDKT-2023070009-ED530XT,1D102K254.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\2023\reports_230705\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B97423C8-0707-4B85-A961-A1DB405E6EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1948B9-D216-45DA-A5BF-51A26CDB9EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15600" yWindow="5655" windowWidth="6405" windowHeight="3270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCGDKT" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>BÁO CÁO GIÁM ĐỊNH KỸ THUẬT</t>
   </si>
@@ -102,15 +102,9 @@
     <t xml:space="preserve">- </t>
   </si>
   <si>
-    <t>QUẢN LÝ TRUNG TÂM KỸ THUẬT</t>
-  </si>
-  <si>
     <t>NGƯỜI BÁO CÁO</t>
   </si>
   <si>
-    <t>Võ Hồng Dương</t>
-  </si>
-  <si>
     <t>Ngày sửa chữa lần cuối:</t>
   </si>
   <si>
@@ -150,6 +144,9 @@
     <t>Chất lỏng thẩm thấu từ vị trí rò rỉ</t>
   </si>
   <si>
+    <t>PHỤ TRÁCH TRUNG TÂM KỸ THUẬT</t>
+  </si>
+  <si>
     <t>Trung tâm Kỹ thuật thuộc Nhóm Nội soi, Bộ phận Thiết bị Y tế, công ty TNHH Fujifilm Việt Nam xin gửi tới Quý Bệnh viện bản báo cáo giám định kỹ thuật như sau:</t>
   </si>
   <si>
@@ -195,7 +192,7 @@
     <t>04/07/2023</t>
   </si>
   <si>
-    <t>Số:23072023070009/BCGĐKT</t>
+    <t>Số:2023070009/BCGĐKT</t>
   </si>
   <si>
     <t>- Bộ phận thân ống soi (ISA)</t>
@@ -321,18 +318,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -399,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -473,83 +464,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -584,7 +566,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>340996</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
+      <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -981,13 +963,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>655320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1055,20 +1037,20 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:colOff>1135491</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="QR_Code">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE9B9A5-9B10-C08F-3DC0-700D05B960BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4D7BE6-2C7E-1E04-6A14-BCE0E4849BC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,8 +1072,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5499100" y="990600"/>
-          <a:ext cx="1143000" cy="1143000"/>
+          <a:off x="5505450" y="990601"/>
+          <a:ext cx="1138666" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,23 +1084,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>902450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Nguyen">
+        <xdr:cNvPr id="9" name="Thong">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62369C51-E84D-553D-E9C7-0C0678174B33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B807C8-737A-F06B-E693-C703D8C02C53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,8 +1122,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371850" y="10394950"/>
-          <a:ext cx="1226820" cy="937260"/>
+          <a:off x="5245100" y="10071100"/>
+          <a:ext cx="1159625" cy="764771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1152,23 +1134,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>905625</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>66271</xdr:rowOff>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>103987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Thong">
+        <xdr:cNvPr id="11" name="Model">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460F1F9E-3082-4A44-ECE8-5144D27FC66E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D45E66-1490-3CDB-B05D-528F25038CD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,58 +1172,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5245100" y="10394950"/>
-          <a:ext cx="1159625" cy="764771"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121731</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Model">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE2EF85-2C06-4BCB-E44B-CEB61CB68A3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4229100" y="3067050"/>
-          <a:ext cx="2286000" cy="1499681"/>
+          <a:off x="4229100" y="3067051"/>
+          <a:ext cx="2286000" cy="1497811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1555,8 +1487,8 @@
   </sheetPr>
   <dimension ref="A5:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:J34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1575,44 +1507,44 @@
   <sheetData>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="A8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1623,18 +1555,18 @@
       <c r="J10" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="A12" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1645,128 +1577,126 @@
       <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="23" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="35" t="s">
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:10" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="46" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34" t="s">
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="28">
+        <v>2411</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="33">
-        <v>2411</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -1778,128 +1708,120 @@
       <c r="A29" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="30" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="30" t="s">
+      <c r="G29" s="42"/>
+      <c r="H29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
+        <v>1</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
-        <v>1</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
-        <v>2</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
-        <v>3</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
-    </row>
-    <row r="34" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15">
-        <v>4</v>
-      </c>
-      <c r="B34" s="36" t="s">
+      <c r="C33" s="43"/>
+      <c r="D33" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40" t="s">
+      <c r="E33" s="45"/>
+      <c r="F33" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="45"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1911,22 +1833,20 @@
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -1940,7 +1860,7 @@
     <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="19"/>
       <c r="B38" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -1954,7 +1874,7 @@
     <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="19"/>
       <c r="B39" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -1968,7 +1888,7 @@
     <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="19"/>
       <c r="B40" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -1982,7 +1902,7 @@
     <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="19"/>
       <c r="B41" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -1996,7 +1916,7 @@
     <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="19"/>
       <c r="B42" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -2010,7 +1930,7 @@
     <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="19"/>
       <c r="B43" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -2023,17 +1943,17 @@
     </row>
     <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
-      <c r="B44" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
+      <c r="B44" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
@@ -2065,33 +1985,33 @@
       <c r="A47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
+      <c r="B47" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
     <row r="48" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
+      <c r="B48" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
     </row>
     <row r="49" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
@@ -2106,18 +2026,18 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
@@ -2131,24 +2051,21 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="12" t="str">
-        <f>IF(D21="None","","    NGƯỜI CHỨNG KIẾN")</f>
-        <v xml:space="preserve">    NGƯỜI CHỨNG KIẾN</v>
-      </c>
+    <row r="52" spans="1:10" s="6" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="26"/>
+      <c r="I52" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
@@ -2211,24 +2128,21 @@
       <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27" t="str">
-        <f>IF(D21="None","",D21)</f>
-        <v>Nguyễn Thái Nguyên</v>
-      </c>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27" t="str">
+      <c r="A58" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47" t="str">
         <f>D19</f>
         <v>Lê Quang Thông</v>
       </c>
-      <c r="J58" s="27"/>
+      <c r="J58" s="47"/>
     </row>
     <row r="59" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
@@ -2256,23 +2170,46 @@
       <c r="D63" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="53">
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="A58:E58"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:J33"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="A52:F52"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
@@ -2287,32 +2224,6 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A52:E52"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.2" top="0.05" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2324,7 +2235,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$10:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>F31:F34 G31</xm:sqref>
+          <xm:sqref>F30:F33 G30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2343,30 +2254,30 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" ht="60.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="A1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="A2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -2375,32 +2286,32 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2413,9 +2324,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2551,26 +2465,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627B9F33-52EF-4FD1-854C-E5ABF9D4669E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED90EC8F-59FD-4FD1-B41D-2067B0AE2CEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66c8120c-852b-4f49-8fa7-ff6717d33796"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2594,9 +2497,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED90EC8F-59FD-4FD1-B41D-2067B0AE2CEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627B9F33-52EF-4FD1-854C-E5ABF9D4669E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66c8120c-852b-4f49-8fa7-ff6717d33796"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>